--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998345893076564</v>
+        <v>0.9999597486733857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9978849980485804</v>
+        <v>0.999115097030544</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9986187360809572</v>
+        <v>0.9998977310069938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9970062337243454</v>
+        <v>0.9999624292033324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.997649814618722</v>
+        <v>0.9999290487939291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001544036206125144</v>
+        <v>3.757284656542894e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001974261483794174</v>
+        <v>0.0008260180792359904</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001015919850916504</v>
+        <v>8.073831257555894e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003324204810855286</v>
+        <v>2.613819972063597e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002170062330885895</v>
+        <v>5.343825614809746e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004617702657260754</v>
+        <v>0.0006604808663662031</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03929422611688827</v>
+        <v>0.006129669368361473</v>
       </c>
       <c r="N2" t="n">
-        <v>1.039698566162465</v>
+        <v>1.000966031838744</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04096706267294581</v>
+        <v>0.006390622083537461</v>
       </c>
       <c r="P2" t="n">
-        <v>62.94671075618314</v>
+        <v>70.37845786853765</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.41860637788815</v>
+        <v>100.8503534902427</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9983171745021524</v>
+        <v>0.9999554353804888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9978581694335189</v>
+        <v>0.9991103041761921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.998587354411005</v>
+        <v>0.9998946530676336</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9969730799522745</v>
+        <v>0.9999550584983437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9976173817136156</v>
+        <v>0.9999240314750455</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001570843734738608</v>
+        <v>4.159911615299929e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001999304818314064</v>
+        <v>0.0008304919983915598</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001039001074584088</v>
+        <v>8.316825368326195e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003361017948043916</v>
+        <v>3.126603772690386e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002200009511314002</v>
+        <v>5.72171457050829e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00466078396098324</v>
+        <v>0.0007020562945434005</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03963387105417042</v>
+        <v>0.006449737680944806</v>
       </c>
       <c r="N3" t="n">
-        <v>1.040387811948342</v>
+        <v>1.001069550868269</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04132116699837</v>
+        <v>0.006724316366820212</v>
       </c>
       <c r="P3" t="n">
-        <v>62.91228478662756</v>
+        <v>70.17486327448979</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.38418040833258</v>
+        <v>100.6467588961948</v>
       </c>
     </row>
     <row r="4">
@@ -632,162 +632,162 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9982878536815774</v>
+        <v>0.9999547115636888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9978307805032133</v>
+        <v>0.9991098853930623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9985552373842953</v>
+        <v>0.9998939302789704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9969392199202083</v>
+        <v>0.9999540218718728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9975842312813288</v>
+        <v>0.9999231738943939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001598213433710076</v>
+        <v>4.227476736390972e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002024871182519216</v>
+        <v>0.0008308829140607556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001062623153273741</v>
+        <v>8.373887372453488e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003398615299047941</v>
+        <v>3.198722418377458e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002230619226160841</v>
+        <v>5.786304895415472e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004704324830184963</v>
+        <v>0.0007082079711232371</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03997766168387136</v>
+        <v>0.006501904902711952</v>
       </c>
       <c r="N4" t="n">
-        <v>1.041091511642144</v>
+        <v>1.00108692247147</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04167959350692203</v>
+        <v>0.006778704455219022</v>
       </c>
       <c r="P4" t="n">
-        <v>62.87773775506845</v>
+        <v>70.14264033223651</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.34963337677347</v>
+        <v>100.6145359539415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_21</t>
+          <t>model_7_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9982579466583333</v>
+        <v>0.9999532223293851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9978028317093492</v>
+        <v>0.9991094978158406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9985224878562168</v>
+        <v>0.9998922339993088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9969046394051085</v>
+        <v>0.9999520636679534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.997550395734667</v>
+        <v>0.9999213804759025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00162613032714182</v>
+        <v>4.366490221661725e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002050960154781029</v>
+        <v>0.0008312447003845914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00108671043682935</v>
+        <v>8.507803580595163e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003437012656781351</v>
+        <v>3.33495568910519e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002261861546805351</v>
+        <v>5.921379634850177e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004748282927241422</v>
+        <v>0.0007202299572520654</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04032530628701808</v>
+        <v>0.006607942358754142</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0418092802</v>
+        <v>1.001122664094757</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04204203806054824</v>
+        <v>0.006889256145292722</v>
       </c>
       <c r="P5" t="n">
-        <v>62.84310423814956</v>
+        <v>70.07793186300134</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.31499985985457</v>
+        <v>100.5498274847064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_20</t>
+          <t>model_7_5_21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9982274257758901</v>
+        <v>0.9999539817263029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9977743101536523</v>
+        <v>0.9991092554044849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9984889809254354</v>
+        <v>0.9998933075596991</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9968693557302143</v>
+        <v>0.9999529238969584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9975158357445416</v>
+        <v>0.9999223404260964</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001654620231190692</v>
+        <v>4.295603852744804e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002077583775072561</v>
+        <v>0.0008314709807444802</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00111135479020369</v>
+        <v>8.423049197260266e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003476190785943206</v>
+        <v>3.275109107367452e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002293772788073448</v>
+        <v>5.849079152313858e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004792702567726498</v>
+        <v>0.0007145022921703877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04067702338164252</v>
+        <v>0.006554085636261402</v>
       </c>
       <c r="N6" t="n">
-        <v>1.042541781378638</v>
+        <v>1.00110443856873</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0424087284800456</v>
+        <v>0.006833106630624682</v>
       </c>
       <c r="P6" t="n">
-        <v>62.80836752808663</v>
+        <v>70.11066665012756</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.28026314979164</v>
+        <v>100.5825622718326</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.998196292203726</v>
+        <v>0.9999524582379572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9977452048603365</v>
+        <v>0.99910902884464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9984550166652895</v>
+        <v>0.9998914930401795</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9968332727365987</v>
+        <v>0.9999509410281445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9974806130050522</v>
+        <v>0.9999204736467032</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001683682054200027</v>
+        <v>4.437814802481756e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002104752288808177</v>
+        <v>0.0008316824644148361</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001136335509404514</v>
+        <v>8.566300088695489e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003516256459052893</v>
+        <v>3.413058327705683e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002326295984228703</v>
+        <v>5.989679208200586e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00483754622631306</v>
+        <v>0.0007265627563562441</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04103269494196095</v>
+        <v>0.006661692579578974</v>
       </c>
       <c r="N7" t="n">
-        <v>1.043288987110577</v>
+        <v>1.001141002289027</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04277954171502841</v>
+        <v>0.006945294624296363</v>
       </c>
       <c r="P7" t="n">
-        <v>62.77354436981386</v>
+        <v>70.04552674256115</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.24543999151888</v>
+        <v>100.5174223642662</v>
       </c>
     </row>
     <row r="8">
@@ -852,272 +852,272 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.99816455137518</v>
+        <v>0.9999516793335724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9977155236554159</v>
+        <v>0.9991085528112237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9984204099998054</v>
+        <v>0.9998907381965879</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9967965020744364</v>
+        <v>0.9999498261595622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.997444720937066</v>
+        <v>0.9999195631298294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001713310724386337</v>
+        <v>4.510522107802121e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002132458390747193</v>
+        <v>0.0008321268207134871</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001161788717842566</v>
+        <v>8.625892733600258e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003557085702488641</v>
+        <v>3.4906203180076e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002359437210165603</v>
+        <v>6.058256525803929e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004882826246577316</v>
+        <v>0.0007329599982617467</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04139215776431977</v>
+        <v>0.006716042069405254</v>
       </c>
       <c r="N8" t="n">
-        <v>1.04405076699568</v>
+        <v>1.001159695994262</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04315430761392567</v>
+        <v>0.007001957884423502</v>
       </c>
       <c r="P8" t="n">
-        <v>62.7386553683074</v>
+        <v>70.01302510291877</v>
       </c>
       <c r="Q8" t="n">
-        <v>93.21055099001242</v>
+        <v>100.4849207246238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_17</t>
+          <t>model_7_5_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9981321641463022</v>
+        <v>0.9999492369946211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9976852503335416</v>
+        <v>0.9991081629074312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9983848875619084</v>
+        <v>0.9998878416169532</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9967590627255984</v>
+        <v>0.9999468744519727</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9974080620786357</v>
+        <v>0.9999166817839125</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001743542780908691</v>
+        <v>4.738503728281108e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002160717207871573</v>
+        <v>0.0008324907787890061</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001187915477048441</v>
+        <v>8.854569036232345e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003598657439245169</v>
+        <v>3.695972158617704e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002393286458146805</v>
+        <v>6.275270597425025e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00492858241397688</v>
+        <v>0.0007513907106010599</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04175575147100925</v>
+        <v>0.006883679051409288</v>
       </c>
       <c r="N9" t="n">
-        <v>1.044828060488746</v>
+        <v>1.001218312129093</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04353338025745165</v>
+        <v>0.00717673151980784</v>
       </c>
       <c r="P9" t="n">
-        <v>62.70367230955451</v>
+        <v>69.91440809647248</v>
       </c>
       <c r="Q9" t="n">
-        <v>93.17556793125952</v>
+        <v>100.3863037181775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_16</t>
+          <t>model_7_5_17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9980991001458748</v>
+        <v>0.9999508744211346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9976543345760772</v>
+        <v>0.999108059036983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9983488018809342</v>
+        <v>0.9998899445305348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9967207183692033</v>
+        <v>0.9999486654140977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9973706347405269</v>
+        <v>0.9999186110778213</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001774406573965828</v>
+        <v>4.585657150713323e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002189575710419716</v>
+        <v>0.0008325877372930621</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001214456501634657</v>
+        <v>8.688550295770895e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003641234074246532</v>
+        <v>3.571373986988856e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002427845287940595</v>
+        <v>6.129962141379875e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004974804230152846</v>
+        <v>0.0007395092138962754</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04212370560582044</v>
+        <v>0.00677174803925347</v>
       </c>
       <c r="N10" t="n">
-        <v>1.045621596499005</v>
+        <v>1.001179013892769</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04391699896155182</v>
+        <v>0.007060035372735412</v>
       </c>
       <c r="P10" t="n">
-        <v>62.66857847295991</v>
+        <v>69.97998408662639</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.14047409466492</v>
+        <v>100.4518797083314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_15</t>
+          <t>model_7_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9980654058159408</v>
+        <v>0.9999483932635813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9976227917772771</v>
+        <v>0.99910763725037</v>
       </c>
       <c r="D11" t="n">
-        <v>0.998312085663332</v>
+        <v>0.9998870298329567</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9966816401837344</v>
+        <v>0.9999456386894796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9973325150459709</v>
+        <v>0.9999156855895507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001805858751949031</v>
+        <v>4.817262317288223e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002219019528530721</v>
+        <v>0.0008329814565819742</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001241461286019827</v>
+        <v>8.918656955869372e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003684625535093599</v>
+        <v>3.781944801514163e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002463043410556713</v>
+        <v>6.350300878691768e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00502145088924896</v>
+        <v>0.0007580265764833552</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04249539683246918</v>
+        <v>0.006940650054057057</v>
       </c>
       <c r="N11" t="n">
-        <v>1.04643026041742</v>
+        <v>1.001238561674048</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04430451385322591</v>
+        <v>0.007236127895984558</v>
       </c>
       <c r="P11" t="n">
-        <v>62.63343807496781</v>
+        <v>69.88143936447364</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.10533369667283</v>
+        <v>100.3533349861787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_14</t>
+          <t>model_7_5_16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9980310199281359</v>
+        <v>0.9999500740407903</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9975906113014039</v>
+        <v>0.9991076320614954</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9982747557415357</v>
+        <v>0.9998891512024328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9966416999183604</v>
+        <v>0.9999476342938711</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9972936325854762</v>
+        <v>0.9999177190706013</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001837956468848902</v>
+        <v>4.660369142590307e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002249058590198771</v>
+        <v>0.0008329863001685961</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001268917449945622</v>
+        <v>8.75118117771387e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003728974228370946</v>
+        <v>3.643109560378307e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002498945839158284</v>
+        <v>6.197145369046087e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005068577961123002</v>
+        <v>0.0007457502931144115</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04287139452885691</v>
+        <v>0.006826689638902816</v>
       </c>
       <c r="N12" t="n">
-        <v>1.047255521724738</v>
+        <v>1.001198223021033</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0446965185499714</v>
+        <v>0.007117315950026621</v>
       </c>
       <c r="P12" t="n">
-        <v>62.59820187861371</v>
+        <v>69.94766160964379</v>
       </c>
       <c r="Q12" t="n">
-        <v>93.07009750031874</v>
+        <v>100.4195572313488</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9979959921582913</v>
+        <v>0.9999475322134904</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9975577653524899</v>
+        <v>0.9991071153382002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9982370790986025</v>
+        <v>0.9998862134883791</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9966008866440844</v>
+        <v>0.9999444535286379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.997254087120352</v>
+        <v>0.9999147103754649</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001870653354457466</v>
+        <v>4.897637563699449e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002279718841739485</v>
+        <v>0.0008334686386832146</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001296628627327386</v>
+        <v>8.983104919754045e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00377429228936928</v>
+        <v>3.864397061056762e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002535460458348333</v>
+        <v>6.423750990405404e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005116096693536827</v>
+        <v>0.0007646546420835818</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04325105032779512</v>
+        <v>0.006998312342057511</v>
       </c>
       <c r="N13" t="n">
-        <v>1.04809618820101</v>
+        <v>1.00125922687623</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04509233708226625</v>
+        <v>0.007296244986962582</v>
       </c>
       <c r="P13" t="n">
-        <v>62.5629350434536</v>
+        <v>69.84834501194575</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.03483066515862</v>
+        <v>100.3202406336508</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9979602318022439</v>
+        <v>0.9999466494960233</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9975242559871028</v>
+        <v>0.9991064459413341</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9981985025684286</v>
+        <v>0.9998854109285281</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9965592077654108</v>
+        <v>0.9999431266004094</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9972136627906552</v>
+        <v>0.9999136769103948</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001904034077129423</v>
+        <v>4.980035364581987e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002310998363437115</v>
+        <v>0.0008340934912744844</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00132500167193015</v>
+        <v>9.046464620681188e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003820571496308179</v>
+        <v>3.956712151842893e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002572786584119165</v>
+        <v>6.501588386262041e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005164129415447357</v>
+        <v>0.000771584854108599</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04363523893746227</v>
+        <v>0.007056936562405806</v>
       </c>
       <c r="N14" t="n">
-        <v>1.048954436746146</v>
+        <v>1.001280412095441</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04549288139642699</v>
+        <v>0.007357364961739971</v>
       </c>
       <c r="P14" t="n">
-        <v>62.52756089024223</v>
+        <v>69.8149769452744</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.99945651194724</v>
+        <v>100.2868725669794</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9979237729746131</v>
+        <v>0.9999457533819996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.997490071608514</v>
+        <v>0.9991059145206741</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9981592444420468</v>
+        <v>0.9998845373628348</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9965167621255435</v>
+        <v>0.9999418286192557</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9971725059676658</v>
+        <v>0.9999126196005079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001938066792365248</v>
+        <v>5.063683675197288e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002342907980329015</v>
+        <v>0.0008345895491340197</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00135387603066141</v>
+        <v>9.115430020588232e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003867702096112974</v>
+        <v>4.04701337948861e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002610789063387192</v>
+        <v>6.58122170003842e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005212630221075709</v>
+        <v>0.0007784529558513966</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04402348001198052</v>
+        <v>0.007115956488903855</v>
       </c>
       <c r="N15" t="n">
-        <v>1.049829448609286</v>
+        <v>1.001301918832008</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04589765069725731</v>
+        <v>0.007418897488697132</v>
       </c>
       <c r="P15" t="n">
-        <v>62.4921286030454</v>
+        <v>69.78166249496556</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.96402422475042</v>
+        <v>100.2535581166706</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9978865917549115</v>
+        <v>0.9999448465413003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.997455207341054</v>
+        <v>0.9991053410127235</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9981191824416388</v>
+        <v>0.999883652451683</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9964734927770775</v>
+        <v>0.9999405105688284</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9971305337104384</v>
+        <v>0.9999115470754465</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001972773828889774</v>
+        <v>5.148333273913957e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002375452243638437</v>
+        <v>0.0008351248936318158</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001383341638877826</v>
+        <v>9.185291110518168e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003915747321788321</v>
+        <v>4.138710837005883e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002649544480333074</v>
+        <v>6.662000973762025e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00526160611750603</v>
+        <v>0.0007853399837925495</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04441591864286693</v>
+        <v>0.007175188690141854</v>
       </c>
       <c r="N16" t="n">
-        <v>1.050721797882125</v>
+        <v>1.001323683008792</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04630679625312051</v>
+        <v>0.007480651327369392</v>
       </c>
       <c r="P16" t="n">
-        <v>62.45662938322905</v>
+        <v>69.74850487761854</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.92852500493407</v>
+        <v>100.2204004993236</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9978486610164988</v>
+        <v>0.9999439088523835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9974196447642197</v>
+        <v>0.9991049557457636</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9980783520768611</v>
+        <v>0.9998826623832728</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9964293679718859</v>
+        <v>0.9999391917917458</v>
       </c>
       <c r="F17" t="n">
-        <v>0.997087741072362</v>
+        <v>0.9999104191019808</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00200818050823104</v>
+        <v>5.235862418318663e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002408648348096543</v>
+        <v>0.0008354845234275316</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001413372379220707</v>
+        <v>9.263454051617494e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003964742425677677</v>
+        <v>4.230458848303088e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002689057402449192</v>
+        <v>6.746956449960291e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005311091888150652</v>
+        <v>0.0007922504844841896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04481272707871102</v>
+        <v>0.007235925938204911</v>
       </c>
       <c r="N17" t="n">
-        <v>1.051632135604028</v>
+        <v>1.001346187542796</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04672049764558518</v>
+        <v>0.00754397428582593</v>
       </c>
       <c r="P17" t="n">
-        <v>62.42105237331111</v>
+        <v>69.7147877867439</v>
       </c>
       <c r="Q17" t="n">
-        <v>92.89294799501613</v>
+        <v>100.1866834084489</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9978100023192946</v>
+        <v>0.9999429464514702</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9973833525639346</v>
+        <v>0.999104545990399</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9980370899562905</v>
+        <v>0.9998817073936697</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9963842627510932</v>
+        <v>0.9999378578112122</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9970441869820407</v>
+        <v>0.9999093024915338</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002044266705150488</v>
+        <v>5.325698319125757e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002442525524019147</v>
+        <v>0.0008358670120742908</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001443720676023888</v>
+        <v>9.338847625778502e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00401482615905838</v>
+        <v>4.323264571639033e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002729273417541134</v>
+        <v>6.831056098708769e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005361021789016739</v>
+        <v>0.0007991750777136416</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04521356771092597</v>
+        <v>0.007297738224358118</v>
       </c>
       <c r="N18" t="n">
-        <v>1.052559944336929</v>
+        <v>1.001369285164715</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04713840289336802</v>
+        <v>0.007608418048969751</v>
       </c>
       <c r="P18" t="n">
-        <v>62.3854322663617</v>
+        <v>69.68076324446176</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.85732788806672</v>
+        <v>100.1526588661668</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9977705692382389</v>
+        <v>0.9999419657102533</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9973463363125178</v>
+        <v>0.999104362387809</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9979949563768264</v>
+        <v>0.99988059021923</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9963382407774497</v>
+        <v>0.9999365502468126</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9969997345953887</v>
+        <v>0.9999081130805449</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002081075755403689</v>
+        <v>5.417246206768897e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002477078569891116</v>
+        <v>0.0008360383970328395</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001474709930993625</v>
+        <v>9.427045207913825e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.004065927832370187</v>
+        <v>4.414232510716717e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002770318881681907</v>
+        <v>6.920638859315271e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005411454375489776</v>
+        <v>0.0008060580462834051</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04561880922825243</v>
+        <v>0.007360194431378085</v>
       </c>
       <c r="N19" t="n">
-        <v>1.053506338282266</v>
+        <v>1.001392822953921</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04756089638105265</v>
+        <v>0.007673533146024729</v>
       </c>
       <c r="P19" t="n">
-        <v>62.34974065773537</v>
+        <v>69.64667571713392</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.82163627944038</v>
+        <v>100.1185713388389</v>
       </c>
     </row>
     <row r="20">
@@ -1512,382 +1512,382 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9977303684244502</v>
+        <v>0.9999409751084923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9973085656921795</v>
+        <v>0.9991038982867106</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9979522484130587</v>
+        <v>0.999879585835555</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9962912892399671</v>
+        <v>0.9999352013685412</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9969544945268251</v>
+        <v>0.9999069637021729</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00211860145046375</v>
+        <v>5.509714532911292e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002512335786038327</v>
+        <v>0.0008364716150364482</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001506121645717814</v>
+        <v>9.506338296385015e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004118061670621332</v>
+        <v>4.508074677463873e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002812091658169573</v>
+        <v>7.007206486924445e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005462362374296675</v>
+        <v>0.0008130841958458125</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0460282679498561</v>
+        <v>0.007422745134322808</v>
       </c>
       <c r="N20" t="n">
-        <v>1.054471157813196</v>
+        <v>1.001416597396184</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0479877866081314</v>
+        <v>0.007738746761891615</v>
       </c>
       <c r="P20" t="n">
-        <v>62.31399820233796</v>
+        <v>69.6128253041131</v>
       </c>
       <c r="Q20" t="n">
-        <v>92.78589382404299</v>
+        <v>100.0847209258181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_5</t>
+          <t>model_7_5_0</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9976893622999909</v>
+        <v>0.9999346939036606</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9972700642919029</v>
+        <v>0.999103552906826</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9979086231679281</v>
+        <v>0.9998720449397436</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9962434636276783</v>
+        <v>0.9999274882625142</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9969083635730447</v>
+        <v>0.9998994492144072</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002156878867685617</v>
+        <v>6.096037432651278e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002548275153180408</v>
+        <v>0.0008367940119983448</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001538208021042927</v>
+        <v>0.0001010166947666345</v>
       </c>
       <c r="J21" t="n">
-        <v>0.004171166060147433</v>
+        <v>5.044679497382497e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002854687040595181</v>
+        <v>7.573174487022972e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005513796068371521</v>
+        <v>0.00085476059701163</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0464422099784842</v>
+        <v>0.00780771249000069</v>
       </c>
       <c r="N21" t="n">
-        <v>1.055455304800217</v>
+        <v>1.001567346312145</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04841935100589632</v>
+        <v>0.008140102974892991</v>
       </c>
       <c r="P21" t="n">
-        <v>62.27818614184822</v>
+        <v>69.41057301215591</v>
       </c>
       <c r="Q21" t="n">
-        <v>92.75008176355323</v>
+        <v>99.88246863386092</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_4</t>
+          <t>model_7_5_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9976475854615982</v>
+        <v>0.999939967706061</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9972307763528485</v>
+        <v>0.9991033067416134</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9978645485490989</v>
+        <v>0.9998786113184486</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9961945618348251</v>
+        <v>0.9999338391828593</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9968614065696194</v>
+        <v>0.9999058238307814</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002195875712534013</v>
+        <v>5.603751127897886e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002584948719746434</v>
+        <v>0.0008370237964189003</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001570624910800773</v>
+        <v>9.58327350855055e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004225465414236709</v>
+        <v>4.602842647722893e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002898045162518741</v>
+        <v>7.093058078136721e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005565673648308329</v>
+        <v>0.0008201494420408902</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04686017192172915</v>
+        <v>0.007485820681727479</v>
       </c>
       <c r="N22" t="n">
-        <v>1.056457948921644</v>
+        <v>1.001440775054537</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04885510645436571</v>
+        <v>0.007804507565933686</v>
       </c>
       <c r="P22" t="n">
-        <v>62.24234870828653</v>
+        <v>69.57897849441437</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.71424432999156</v>
+        <v>100.0508741161194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_3</t>
+          <t>model_7_5_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9976049604062072</v>
+        <v>0.999938937748833</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9971906896374964</v>
+        <v>0.9991029266813183</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9978196945102235</v>
+        <v>0.9998775106249076</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9961446741377644</v>
+        <v>0.9999324677058457</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9968135463479443</v>
+        <v>0.9999046135392474</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002235664330717799</v>
+        <v>5.699893114133597e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002622367908924256</v>
+        <v>0.0008373785660216863</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001603615064137187</v>
+        <v>9.670169973013727e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.004280859492231454</v>
+        <v>4.698257020779069e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00294223727818432</v>
+        <v>7.184213496896398e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005618096337866346</v>
+        <v>0.0008272699133955066</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04728281221244988</v>
+        <v>0.007549763648044617</v>
       </c>
       <c r="N23" t="n">
-        <v>1.057480950251028</v>
+        <v>1.001465494028007</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04929573941724842</v>
+        <v>0.007871172716707132</v>
       </c>
       <c r="P23" t="n">
-        <v>62.20643371077762</v>
+        <v>69.54495608442386</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.67832933248263</v>
+        <v>100.0168517061289</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_2</t>
+          <t>model_7_5_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9975614973409308</v>
+        <v>0.9999378817863582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9971498181424505</v>
+        <v>0.9991023240943967</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9977740335665942</v>
+        <v>0.9998764469150573</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9960937640939604</v>
+        <v>0.9999309947327257</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9967647500497394</v>
+        <v>0.9999033757546486</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002276235194345199</v>
+        <v>5.798462576014752e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002660519655498261</v>
+        <v>0.0008379410544624909</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001637198696059392</v>
+        <v>9.754146685657826e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004337388759031659</v>
+        <v>4.800732531035393e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002987293727545525</v>
+        <v>7.277439608346611e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005671030191151091</v>
+        <v>0.0008346614931778706</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04770990666879573</v>
+        <v>0.007614763670669466</v>
       </c>
       <c r="N24" t="n">
-        <v>1.058524063817661</v>
+        <v>1.001490837127403</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04974101616880833</v>
+        <v>0.007938939924863718</v>
       </c>
       <c r="P24" t="n">
-        <v>62.17046486269979</v>
+        <v>69.51066531131369</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.6423604844048</v>
+        <v>99.9825609330187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_1</t>
+          <t>model_7_5_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9975171806161417</v>
+        <v>0.9999368048690092</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9971081146611528</v>
+        <v>0.9991016130766824</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9977276071339717</v>
+        <v>0.9998754265750418</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9960418888223308</v>
+        <v>0.9999293898002511</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9967150685137659</v>
+        <v>0.9999020997544452</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002317602911656458</v>
+        <v>5.89898808342566e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002699448024718471</v>
+        <v>0.0008386047582886716</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001671345345268318</v>
+        <v>9.834699479508468e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.004394989791189085</v>
+        <v>4.912388522601088e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003033167568228701</v>
+        <v>7.373544001054777e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005724483814842807</v>
+        <v>0.0008422629966994794</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04814148846531916</v>
+        <v>0.007680487018038413</v>
       </c>
       <c r="N25" t="n">
-        <v>1.059587665212599</v>
+        <v>1.00151668314378</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05019097129590724</v>
+        <v>0.008007461251196247</v>
       </c>
       <c r="P25" t="n">
-        <v>62.13444371037188</v>
+        <v>69.47628928010417</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.6063393320769</v>
+        <v>99.94818490180919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_0</t>
+          <t>model_7_5_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.997472008555531</v>
+        <v>0.9999357169288554</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9970655818519879</v>
+        <v>0.9991007044443564</v>
       </c>
       <c r="D26" t="n">
-        <v>0.997680522503659</v>
+        <v>0.9998744789980154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9959889312722505</v>
+        <v>0.9999277489366327</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9966644740923613</v>
+        <v>0.9999008452943713</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002359769047412279</v>
+        <v>6.000542521271809e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002739150535099326</v>
+        <v>0.0008394529266807095</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001705976098991932</v>
+        <v>9.909507852891133e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00445379255885314</v>
+        <v>5.026544262640814e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003079884328922536</v>
+        <v>7.468026057765973e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005778450091547958</v>
+        <v>0.0008499264097343787</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04857745410591501</v>
+        <v>0.007746316880474106</v>
       </c>
       <c r="N26" t="n">
-        <v>1.060671794667257</v>
+        <v>1.00154279370747</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05064549689639655</v>
+        <v>0.008076093627162427</v>
       </c>
       <c r="P26" t="n">
-        <v>62.09838305199865</v>
+        <v>69.44215115923573</v>
       </c>
       <c r="Q26" t="n">
-        <v>92.57027867370367</v>
+        <v>99.91404678094075</v>
       </c>
     </row>
   </sheetData>
